--- a/rmonize/data_proc_elem/DPE_KORA_S1_P2_Preliminary.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S1_P2_Preliminary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC625FF-FE45-499A-9C5C-90852CD55555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F900EC0C-D035-4F72-878D-BDE718426C03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{8B979143-186A-4DC0-ADB7-438B45FFD7D0}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
     <customWorkbookView name="49152 - Personal View" guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Siampani, Sofia Maria - Personal View" guid="{D25176B6-2194-4D8F-99D6-14D593512471}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="977" activeSheetId="1"/>
-    <customWorkbookView name="Osei, Tracy Bonsu - Personal View" guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="277">
   <si>
     <t>index</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>AV610; AV681; AV684; AV687; AV620; AV630; AV650; AV670</t>
-  </si>
-  <si>
-    <t>operation/other</t>
   </si>
   <si>
     <t>AV610 + AV681 + AV684 + AV687 + AV620 + AV630 + AV650 + AV670</t>
@@ -839,12 +836,6 @@
 AV325; AV331; AV334; AV337; AV341;
 AV343; AV344; AV345; AV346; AV351;
 AV357; AV360; AV370; AV390</t>
-  </si>
-  <si>
-    <t>AV310 + AV311 + AV315 + AV321 + AV323 +
-AV325 + AV331 + AV334 + AV337 + AV341 +
-AV343 + AV344 + AV345 + AV346 + AV351 +
-AV357 + AV360 + AV370 +AV390</t>
   </si>
   <si>
     <t>AV310 (fruit without specification) +
@@ -868,23 +859,6 @@
 AV390 (other processed fruit)</t>
   </si>
   <si>
-    <t>RED_MEAT_0701</t>
-  </si>
-  <si>
-    <t>Intake of red meat (mammals meat) [g/d]</t>
-  </si>
-  <si>
-    <t>AV111; AV112; AV113; AV115; AV117;
-AV119; AV131</t>
-  </si>
-  <si>
-    <t>AV111 + AV112 + AV113 + AV115 + AV117 +
-AV119 + AV131</t>
-  </si>
-  <si>
-    <t>AV111 (beef)+ AV112 (veal) + AV113 (pork meat) + AV115 (sheep or goat meat) + AV117 (game meat) + AV119 (other meat) + AV131 (minced meat)</t>
-  </si>
-  <si>
     <t>COFFEE_130301</t>
   </si>
   <si>
@@ -916,6 +890,12 @@
   </si>
   <si>
     <t>BMI_SDS_FUP</t>
+  </si>
+  <si>
+    <t>AV310 + AV311 + AV315 + AV321 + AV323 +
+AV325 + AV331 + AV334 + AV337 + AV341 +
+AV343 + AV344 + AV345 + AV346 + AV351 +
+AV357 + AV360 + AV370 + AV390</t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EEE99-8A14-4256-9AEF-BF43A09DA625}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>14</v>
@@ -3170,7 +3150,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>164</v>
@@ -3943,19 +3923,19 @@
         <v>231</v>
       </c>
       <c r="G82" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="H82" s="21" t="s">
+      <c r="I82" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="J82" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="K82" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3963,10 +3943,10 @@
         <v>94</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>237</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>238</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>35</v>
@@ -3975,22 +3955,22 @@
         <v>20</v>
       </c>
       <c r="F83" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="G83" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H83" s="13" t="s">
+      <c r="I83" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="I83" s="15" t="s">
-        <v>241</v>
-      </c>
       <c r="J83" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K83" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="K83" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3998,10 +3978,10 @@
         <v>95</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>35</v>
@@ -4010,19 +3990,19 @@
         <v>20</v>
       </c>
       <c r="F84" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>245</v>
-      </c>
       <c r="J84" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>16</v>
@@ -4033,10 +4013,10 @@
         <v>96</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>246</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>247</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>35</v>
@@ -4045,22 +4025,22 @@
         <v>20</v>
       </c>
       <c r="F85" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H85" s="13" t="s">
+      <c r="I85" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="I85" s="15" t="s">
-        <v>250</v>
-      </c>
       <c r="J85" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K85" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4068,10 +4048,10 @@
         <v>97</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>35</v>
@@ -4097,10 +4077,10 @@
         <v>98</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>35</v>
@@ -4109,19 +4089,19 @@
         <v>20</v>
       </c>
       <c r="F87" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H87" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H87" s="15" t="s">
+      <c r="I87" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="I87" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="J87" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K87" s="13" t="s">
         <v>81</v>
@@ -4132,10 +4112,10 @@
         <v>99</v>
       </c>
       <c r="B88" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>35</v>
@@ -4144,19 +4124,19 @@
         <v>20</v>
       </c>
       <c r="F88" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>261</v>
-      </c>
       <c r="J88" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>16</v>
@@ -4167,10 +4147,10 @@
         <v>100</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>35</v>
@@ -4179,33 +4159,33 @@
         <v>20</v>
       </c>
       <c r="F89" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I89" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="G89" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H89" s="17" t="s">
+      <c r="J89" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>103</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="C90" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>101</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>268</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>35</v>
@@ -4213,34 +4193,34 @@
       <c r="E90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I90" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G90" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H90" s="15" t="s">
+      <c r="J90" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>104</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="C91" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="J90" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K90" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>103</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>273</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>35</v>
@@ -4248,62 +4228,31 @@
       <c r="E91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>274</v>
+      <c r="F91" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>276</v>
+        <v>22</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>104</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C92" s="25"/>
+      <c r="E92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="25"/>
       <c r="E93" s="1"/>
       <c r="I93" s="1"/>
     </row>
@@ -4376,19 +4325,15 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E111" s="1"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" s="1"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
-      <selection activeCell="G12" sqref="G12"/>
+    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
+      <selection activeCell="G56" sqref="G56"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -4397,8 +4342,8 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9AC85045-6509-4A94-BC31-A1B440A0D150}" topLeftCell="A51">
-      <selection activeCell="G56" sqref="G56"/>
+    <customSheetView guid="{B7BE4B6F-CDC5-4AE8-A24C-80929B23A0EA}" topLeftCell="A2">
+      <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -4421,15 +4366,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4670,6 +4606,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BB7CB2-3E08-455A-88BD-99593455AB98}">
   <ds:schemaRefs>
@@ -4682,14 +4627,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90007BCE-D6C9-4CB3-AE8E-CBBB1F6A5A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4706,4 +4643,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9BE38D0-BD1C-4126-A2D1-5A24E80B0CB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>